--- a/Barbie_Financiera_FASE_2/BF-0041/BF-0041 Defectos.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0041/BF-0041 Defectos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\Barbie_Financiera_FASE_2\BF-0041\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7112C12-B27A-4ADF-B738-6F7A464AF986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4250965-7A1D-41EA-AD58-98244B419DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.36328125" defaultRowHeight="20" customHeight="1"/>
